--- a/data/trans_orig/P57B4_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>159194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136157</v>
+        <v>135002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184914</v>
+        <v>183805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3230412311142805</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2762924638988976</v>
+        <v>0.2739502052185245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3752311542618126</v>
+        <v>0.3729809924822672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>170</v>
@@ -762,19 +762,19 @@
         <v>142451</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122871</v>
+        <v>123565</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164220</v>
+        <v>163483</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2308066655465471</v>
+        <v>0.2308066655465472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1990830145109962</v>
+        <v>0.2002077910928413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2660788683789224</v>
+        <v>0.2648841202033156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>291</v>
@@ -783,19 +783,19 @@
         <v>301645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>270591</v>
+        <v>270561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>331793</v>
+        <v>333445</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2717559858819421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2437785728885252</v>
+        <v>0.2437522688476441</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2989167766317724</v>
+        <v>0.3004053370100692</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>192250</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168952</v>
+        <v>169299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214154</v>
+        <v>217453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3901175078194916</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3428411629349942</v>
+        <v>0.3435451296350325</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4345673973434617</v>
+        <v>0.4412611315947813</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>383</v>
@@ -833,19 +833,19 @@
         <v>278092</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255471</v>
+        <v>254893</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299449</v>
+        <v>298204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4505812288661062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4139280082115375</v>
+        <v>0.412992352470612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4851843971433797</v>
+        <v>0.4831679544012201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>563</v>
@@ -854,19 +854,19 @@
         <v>470342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>438368</v>
+        <v>435568</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>501736</v>
+        <v>501640</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4237371897949886</v>
+        <v>0.4237371897949887</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3949311730544145</v>
+        <v>0.3924085565928759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4520205911139574</v>
+        <v>0.4519339880242914</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>107614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>89443</v>
+        <v>91198</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126697</v>
+        <v>124751</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2183736607331047</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1814992670813929</v>
+        <v>0.1850617223526279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2570968522567683</v>
+        <v>0.2531471111855467</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>232</v>
@@ -904,19 +904,19 @@
         <v>153344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>135236</v>
+        <v>134358</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>172362</v>
+        <v>171276</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2484559756245174</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2191163224727244</v>
+        <v>0.2176943701913475</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2792701399786898</v>
+        <v>0.2775119284321879</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>347</v>
@@ -925,19 +925,19 @@
         <v>260958</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>233903</v>
+        <v>233562</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>287519</v>
+        <v>287022</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2351003497662911</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2107260158773784</v>
+        <v>0.2104190284023563</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2590297756429643</v>
+        <v>0.2585820987220439</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>33741</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23892</v>
+        <v>23584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46411</v>
+        <v>46498</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06846760033312327</v>
+        <v>0.06846760033312328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0484812798366904</v>
+        <v>0.04785713780228899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09417852870805678</v>
+        <v>0.0943545754454056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -975,19 +975,19 @@
         <v>43299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33690</v>
+        <v>33978</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54612</v>
+        <v>55424</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07015612996282926</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05458579685821479</v>
+        <v>0.05505262482676714</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08848483845904327</v>
+        <v>0.08980156094755944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>100</v>
@@ -996,19 +996,19 @@
         <v>77040</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62657</v>
+        <v>61690</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95303</v>
+        <v>92673</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06940647455677804</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05644876994316455</v>
+        <v>0.05557769410740906</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08585999076893877</v>
+        <v>0.08348998054115638</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>387110</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>353739</v>
+        <v>353385</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>420945</v>
+        <v>425050</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4059968152795935</v>
+        <v>0.4059968152795934</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3709978584850354</v>
+        <v>0.3706265584231412</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.441482230649803</v>
+        <v>0.445787207539437</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>436</v>
@@ -1121,19 +1121,19 @@
         <v>351961</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>325696</v>
+        <v>323657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>382542</v>
+        <v>378746</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3178605172360612</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2941396511393666</v>
+        <v>0.2922984881866184</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3454787964648107</v>
+        <v>0.3420501702308797</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>751</v>
@@ -1142,19 +1142,19 @@
         <v>739072</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>689773</v>
+        <v>688413</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>783459</v>
+        <v>782621</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3586397351994</v>
+        <v>0.3586397351993999</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3347169219659062</v>
+        <v>0.3340569817147401</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3801790579365535</v>
+        <v>0.3797722878026942</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>426087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>390468</v>
+        <v>390964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>459947</v>
+        <v>460470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4468749778750263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4095187674698159</v>
+        <v>0.4100382114433939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4823867440291471</v>
+        <v>0.4829358248323698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>811</v>
@@ -1192,19 +1192,19 @@
         <v>548388</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>516493</v>
+        <v>519809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>577604</v>
+        <v>578409</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4952559904383539</v>
+        <v>0.4952559904383541</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4664509048191094</v>
+        <v>0.4694458340716189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5216411898393629</v>
+        <v>0.5223681904904411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1232</v>
@@ -1213,19 +1213,19 @@
         <v>974475</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>930336</v>
+        <v>928240</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1023157</v>
+        <v>1024875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4728708903104534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.451452104308407</v>
+        <v>0.4504347378052646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4964938985749361</v>
+        <v>0.497327931735552</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>121222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>100561</v>
+        <v>101815</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141280</v>
+        <v>144904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1271361544831725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1054670635131893</v>
+        <v>0.1067821904713489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1481729760872466</v>
+        <v>0.1519739608356353</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>297</v>
@@ -1263,19 +1263,19 @@
         <v>179499</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162066</v>
+        <v>159921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201188</v>
+        <v>199063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1621074808598576</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1463642424713155</v>
+        <v>0.1444263505570126</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.181695345676393</v>
+        <v>0.1797765703912733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>443</v>
@@ -1284,19 +1284,19 @@
         <v>300721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>274301</v>
+        <v>273430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>331209</v>
+        <v>331770</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1459268223520823</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1331064582143556</v>
+        <v>0.1326835717430485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1607213305337842</v>
+        <v>0.1609935528393043</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>19062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11708</v>
+        <v>11828</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28230</v>
+        <v>28214</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01999205236220776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0122791890152307</v>
+        <v>0.01240490369178217</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02960743168391274</v>
+        <v>0.02959024152514183</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -1334,19 +1334,19 @@
         <v>27434</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20726</v>
+        <v>20647</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35952</v>
+        <v>37257</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02477601146572717</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01871833593508399</v>
+        <v>0.01864619168007621</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03246888891335956</v>
+        <v>0.03364730381594333</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -1355,19 +1355,19 @@
         <v>46496</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35881</v>
+        <v>35878</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58758</v>
+        <v>60604</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02256255213806447</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01741145347844113</v>
+        <v>0.01740997508232629</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02851268031947586</v>
+        <v>0.02940872157431892</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>473438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>433665</v>
+        <v>440448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>507716</v>
+        <v>510108</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4535067974028982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4154075921232358</v>
+        <v>0.4219056782993311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4863412605330296</v>
+        <v>0.4886327347865955</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>507</v>
@@ -1480,19 +1480,19 @@
         <v>402769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>373314</v>
+        <v>376254</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>428510</v>
+        <v>431674</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.386652874535748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3583764856447316</v>
+        <v>0.3611989047126744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4113635362920761</v>
+        <v>0.4144008745194651</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>924</v>
@@ -1501,19 +1501,19 @@
         <v>876208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>832685</v>
+        <v>827923</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>922090</v>
+        <v>916946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4201161791277194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3992483978355567</v>
+        <v>0.3969651239989409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4421152139777191</v>
+        <v>0.4396489405885575</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>470806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>435867</v>
+        <v>436990</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>507970</v>
+        <v>505282</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4509852871892969</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.417517224767267</v>
+        <v>0.4185925809039275</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4865842819421937</v>
+        <v>0.4840098250634715</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>777</v>
@@ -1551,19 +1551,19 @@
         <v>509358</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>481140</v>
+        <v>479600</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>539437</v>
+        <v>536807</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.488976627042863</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4618874033060307</v>
+        <v>0.4604095084710538</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5178514200703942</v>
+        <v>0.5153272930333488</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1272</v>
@@ -1572,19 +1572,19 @@
         <v>980164</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>932680</v>
+        <v>938972</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1021564</v>
+        <v>1026498</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4699603042475157</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4471930319849014</v>
+        <v>0.4502097894342089</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4898100501424867</v>
+        <v>0.4921762299651732</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>85318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68564</v>
+        <v>69247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105128</v>
+        <v>105753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08172634590301819</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0656772721869248</v>
+        <v>0.06633200994645326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1007017895032472</v>
+        <v>0.1013008885738323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -1622,19 +1622,19 @@
         <v>115383</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99707</v>
+        <v>99461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132239</v>
+        <v>131489</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1107655843153056</v>
+        <v>0.1107655843153057</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09571721362487144</v>
+        <v>0.09548113012321459</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1269476042749611</v>
+        <v>0.1262275378894836</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>298</v>
@@ -1643,19 +1643,19 @@
         <v>200701</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176803</v>
+        <v>178195</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>227172</v>
+        <v>227947</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09623017878584596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08477184593815069</v>
+        <v>0.08543933185396933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1089224811129747</v>
+        <v>0.1092939448272695</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>14387</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8549</v>
+        <v>8024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27472</v>
+        <v>24924</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01378156950478666</v>
+        <v>0.01378156950478667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008189443985393969</v>
+        <v>0.007686108886512936</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02631508914726226</v>
+        <v>0.02387449406448649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -1693,19 +1693,19 @@
         <v>14172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9104</v>
+        <v>9122</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22077</v>
+        <v>22755</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01360491410608325</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008739355294115446</v>
+        <v>0.008756950504140449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02119366947880156</v>
+        <v>0.02184475811949447</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1714,19 +1714,19 @@
         <v>28559</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20479</v>
+        <v>20273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41612</v>
+        <v>41430</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01369333783891903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009818882396746857</v>
+        <v>0.009720364414523041</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01995195436086293</v>
+        <v>0.0198643051898364</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>460348</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>426871</v>
+        <v>423026</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>495167</v>
+        <v>496652</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4731845606894076</v>
+        <v>0.4731845606894075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4387747558291118</v>
+        <v>0.4348222746973555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5089753795221742</v>
+        <v>0.5105018967825233</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>539</v>
@@ -1839,19 +1839,19 @@
         <v>420739</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>393171</v>
+        <v>393995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>448240</v>
+        <v>447794</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4663721096865135</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4358133575154073</v>
+        <v>0.4367270724621386</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4968548387380163</v>
+        <v>0.4963613533669862</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>929</v>
@@ -1860,19 +1860,19 @@
         <v>881087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>835706</v>
+        <v>836533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>925507</v>
+        <v>923071</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4699068023128942</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4457036973086229</v>
+        <v>0.4461449666490837</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4935967514118024</v>
+        <v>0.4922975855876695</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>396407</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>364379</v>
+        <v>361818</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>430145</v>
+        <v>431684</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.407461054999521</v>
+        <v>0.4074610549995209</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3745394747583426</v>
+        <v>0.3719071524685975</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4421402721853687</v>
+        <v>0.4437218737970837</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>537</v>
@@ -1910,19 +1910,19 @@
         <v>346315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>322908</v>
+        <v>321936</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>371801</v>
+        <v>375571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3838757484066355</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.357929748722764</v>
+        <v>0.3568521168448879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4121259008548233</v>
+        <v>0.4163046806540638</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>960</v>
@@ -1931,19 +1931,19 @@
         <v>742722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>700616</v>
+        <v>696261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>784182</v>
+        <v>783761</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3961131662272387</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.373656431154304</v>
+        <v>0.3713340553561725</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4182246187193794</v>
+        <v>0.417999967030497</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>104287</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>84885</v>
+        <v>85064</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>125718</v>
+        <v>126866</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1071952436343531</v>
+        <v>0.107195243634353</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08725236872638868</v>
+        <v>0.08743621162731333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1292240870137595</v>
+        <v>0.1304032458716671</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>197</v>
@@ -1981,19 +1981,19 @@
         <v>106429</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>90146</v>
+        <v>91533</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>122341</v>
+        <v>122675</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.117972202381301</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09992341490467556</v>
+        <v>0.1014603339689101</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1356101811788284</v>
+        <v>0.1359801343234615</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>317</v>
@@ -2002,19 +2002,19 @@
         <v>210716</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>185622</v>
+        <v>186420</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>240746</v>
+        <v>238934</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1123804944040306</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09899700591809278</v>
+        <v>0.09942270628578387</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1283963309459918</v>
+        <v>0.1274296250625471</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>11829</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5725</v>
+        <v>5670</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20433</v>
+        <v>21311</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01215914067671839</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005884559525403965</v>
+        <v>0.005827958342655325</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02100277179377765</v>
+        <v>0.02190569920737719</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2052,19 +2052,19 @@
         <v>28670</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18968</v>
+        <v>20438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39036</v>
+        <v>40875</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03177993952555012</v>
+        <v>0.03177993952555011</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02102571253119812</v>
+        <v>0.02265425706731628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04326957732009022</v>
+        <v>0.04530856147253136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2073,19 +2073,19 @@
         <v>40500</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29793</v>
+        <v>30687</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53894</v>
+        <v>53450</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0215995370558365</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01588937426530325</v>
+        <v>0.01636616715217656</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02874329218426524</v>
+        <v>0.02850610908075388</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1480091</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1421084</v>
+        <v>1412697</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1547166</v>
+        <v>1546625</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.427388796888378</v>
+        <v>0.4273887968883779</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4103500939050462</v>
+        <v>0.4079281025401478</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4467571931357462</v>
+        <v>0.4466011326444868</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1652</v>
@@ -2198,19 +2198,19 @@
         <v>1317921</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1268260</v>
+        <v>1263612</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1373279</v>
+        <v>1377217</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3592724937172749</v>
+        <v>0.359272493717275</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3457347686667928</v>
+        <v>0.3444675871623828</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3743635761385886</v>
+        <v>0.3754369325323398</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2895</v>
@@ -2219,19 +2219,19 @@
         <v>2798012</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2705362</v>
+        <v>2712800</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2885664</v>
+        <v>2888868</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3923506416354467</v>
+        <v>0.3923506416354468</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3793588232271441</v>
+        <v>0.3804018585675314</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4046417081939279</v>
+        <v>0.4050909453112657</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1485550</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1422577</v>
+        <v>1427071</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1545045</v>
+        <v>1551681</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4289650901865573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4107812340252769</v>
+        <v>0.4120788189000075</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4461447367272341</v>
+        <v>0.4480609471947206</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2508</v>
@@ -2269,19 +2269,19 @@
         <v>1682154</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1629940</v>
+        <v>1630151</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1737328</v>
+        <v>1736844</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4585644112933737</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4443306099612335</v>
+        <v>0.4443883061546585</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4736052225761688</v>
+        <v>0.4734733849218911</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4027</v>
@@ -2290,19 +2290,19 @@
         <v>3167704</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3085688</v>
+        <v>3080051</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3257928</v>
+        <v>3254304</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.444190602436053</v>
+        <v>0.4441906024360531</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4326899538090098</v>
+        <v>0.4318995057252113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4568422691927551</v>
+        <v>0.4563341180544647</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>418442</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>378661</v>
+        <v>379897</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>463746</v>
+        <v>456748</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1208285966122122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1093414776266514</v>
+        <v>0.1096985647750771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1339106719808382</v>
+        <v>0.1318897924155309</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>926</v>
@@ -2340,19 +2340,19 @@
         <v>554654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>519744</v>
+        <v>520375</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>591147</v>
+        <v>594460</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1512017047372827</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1416851783726329</v>
+        <v>0.141857099034495</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1611500473708224</v>
+        <v>0.1620529759363738</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1405</v>
@@ -2361,19 +2361,19 @@
         <v>973096</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>919053</v>
+        <v>919526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1026594</v>
+        <v>1026944</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1364521350084028</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1288740525884708</v>
+        <v>0.1289403684766597</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1439538892087122</v>
+        <v>0.1440030126074604</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>79019</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>63272</v>
+        <v>63760</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>97672</v>
+        <v>98526</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02281751631285252</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01827027611223597</v>
+        <v>0.01841134339239271</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02820350095375732</v>
+        <v>0.02845035076549664</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>173</v>
@@ -2411,19 +2411,19 @@
         <v>113576</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>97509</v>
+        <v>96669</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>132878</v>
+        <v>133212</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03096139025206876</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02658151856041761</v>
+        <v>0.02635238429107839</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03622339172232906</v>
+        <v>0.03631438135812119</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>259</v>
@@ -2432,19 +2432,19 @@
         <v>192595</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>168701</v>
+        <v>166125</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>218288</v>
+        <v>218355</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.02700662092009742</v>
+        <v>0.02700662092009743</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02365599735405562</v>
+        <v>0.02329482217182611</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03060942981976328</v>
+        <v>0.03061875961637643</v>
       </c>
     </row>
     <row r="28">
